--- a/database/industries/siman/sekhash/cost/yearly.xlsx
+++ b/database/industries/siman/sekhash/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhash\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhash\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2307EAB-CCC1-4688-9250-2B5FA0605D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A82030-CA59-48D6-975C-4CF3CC8680D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -100,49 +100,49 @@
     <t>تن</t>
   </si>
   <si>
+    <t>سنگ گچ</t>
+  </si>
+  <si>
+    <t>سنگ آهک</t>
+  </si>
+  <si>
+    <t>پوزولان</t>
+  </si>
+  <si>
+    <t>سنگ آهن</t>
+  </si>
+  <si>
+    <t>مقدار خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>تن / ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>سنگ گچ</t>
-  </si>
-  <si>
-    <t>سنگ آهک</t>
-  </si>
-  <si>
-    <t>پوزولان</t>
-  </si>
-  <si>
-    <t>سنگ آهن</t>
-  </si>
-  <si>
-    <t>مقدار خرید طی دوره</t>
-  </si>
-  <si>
-    <t>مقدار مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>مقدار موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>مبلغ موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>میلیون ریال</t>
-  </si>
-  <si>
-    <t>مبلغ خرید طی دوره</t>
-  </si>
-  <si>
-    <t>مبلغ مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>مبلغ موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>نرخ موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>تن / ریال</t>
   </si>
   <si>
     <t>نرخ خرید طی دوره</t>
@@ -653,12 +653,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -668,7 +668,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -702,7 +702,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -726,7 +726,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +736,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -758,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -768,105 +768,105 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>95837</v>
+        <v>90104</v>
       </c>
       <c r="F10" s="9">
-        <v>90104</v>
+        <v>119136</v>
       </c>
       <c r="G10" s="9">
-        <v>119136</v>
+        <v>240346</v>
       </c>
       <c r="H10" s="9">
-        <v>240346</v>
+        <v>384912</v>
       </c>
       <c r="I10" s="9">
-        <v>384912</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>596670</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>28762</v>
+        <v>32011</v>
       </c>
       <c r="F11" s="11">
-        <v>32011</v>
+        <v>46900</v>
       </c>
       <c r="G11" s="11">
-        <v>46900</v>
+        <v>77886</v>
       </c>
       <c r="H11" s="11">
-        <v>77886</v>
+        <v>136187</v>
       </c>
       <c r="I11" s="11">
-        <v>136187</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>161372</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>613766</v>
+        <v>721711</v>
       </c>
       <c r="F12" s="9">
-        <v>721711</v>
+        <v>832372</v>
       </c>
       <c r="G12" s="9">
-        <v>832372</v>
+        <v>1215191</v>
       </c>
       <c r="H12" s="9">
-        <v>1215191</v>
+        <v>1988884</v>
       </c>
       <c r="I12" s="9">
-        <v>1988884</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3038257</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>738365</v>
+        <v>843826</v>
       </c>
       <c r="F13" s="13">
-        <v>843826</v>
+        <v>998408</v>
       </c>
       <c r="G13" s="13">
-        <v>998408</v>
+        <v>1533423</v>
       </c>
       <c r="H13" s="13">
-        <v>1533423</v>
+        <v>2509983</v>
       </c>
       <c r="I13" s="13">
-        <v>2509983</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3796299</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-226</v>
+        <v>-286</v>
       </c>
       <c r="F14" s="9">
-        <v>-286</v>
+        <v>0</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -878,51 +878,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>738139</v>
+        <v>843540</v>
       </c>
       <c r="F15" s="13">
-        <v>843540</v>
+        <v>998408</v>
       </c>
       <c r="G15" s="13">
-        <v>998408</v>
+        <v>1533423</v>
       </c>
       <c r="H15" s="13">
-        <v>1533423</v>
+        <v>2509983</v>
       </c>
       <c r="I15" s="13">
-        <v>2509983</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3796299</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>21695</v>
+        <v>-36951</v>
       </c>
       <c r="F16" s="9">
-        <v>-36951</v>
+        <v>-36366</v>
       </c>
       <c r="G16" s="9">
-        <v>-36366</v>
+        <v>72932</v>
       </c>
       <c r="H16" s="9">
-        <v>72932</v>
+        <v>-175320</v>
       </c>
       <c r="I16" s="9">
-        <v>-175320</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-350486</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -944,95 +944,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>759834</v>
+        <v>806589</v>
       </c>
       <c r="F18" s="15">
-        <v>806589</v>
+        <v>962042</v>
       </c>
       <c r="G18" s="15">
-        <v>962042</v>
+        <v>1606355</v>
       </c>
       <c r="H18" s="15">
-        <v>1606355</v>
+        <v>2334663</v>
       </c>
       <c r="I18" s="15">
-        <v>2334663</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3445813</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>20496</v>
+        <v>24182</v>
       </c>
       <c r="F19" s="11">
-        <v>24182</v>
+        <v>23854</v>
       </c>
       <c r="G19" s="11">
-        <v>23854</v>
+        <v>31423</v>
       </c>
       <c r="H19" s="11">
-        <v>31423</v>
+        <v>27733</v>
       </c>
       <c r="I19" s="11">
-        <v>27732</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>66445</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-24182</v>
+        <v>-23854</v>
       </c>
       <c r="F20" s="9">
-        <v>-23854</v>
+        <v>-31423</v>
       </c>
       <c r="G20" s="9">
-        <v>-31423</v>
+        <v>-27732</v>
       </c>
       <c r="H20" s="9">
-        <v>-27732</v>
+        <v>-66445</v>
       </c>
       <c r="I20" s="9">
-        <v>-66444</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-113432</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>756148</v>
+        <v>806917</v>
       </c>
       <c r="F21" s="13">
-        <v>806917</v>
+        <v>954473</v>
       </c>
       <c r="G21" s="13">
-        <v>954473</v>
+        <v>1610046</v>
       </c>
       <c r="H21" s="13">
-        <v>1610046</v>
+        <v>2295951</v>
       </c>
       <c r="I21" s="13">
-        <v>2295951</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3398826</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1054,29 +1054,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>756148</v>
+        <v>806917</v>
       </c>
       <c r="F23" s="13">
-        <v>806917</v>
+        <v>954473</v>
       </c>
       <c r="G23" s="13">
-        <v>954473</v>
+        <v>1610046</v>
       </c>
       <c r="H23" s="13">
-        <v>1610046</v>
+        <v>2295951</v>
       </c>
       <c r="I23" s="13">
-        <v>2295951</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3398826</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1086,7 +1086,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1096,7 +1096,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1106,7 +1106,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1138,7 +1138,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1146,141 +1146,141 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="9">
+        <v>426843</v>
+      </c>
+      <c r="F29" s="9">
+        <v>516411</v>
+      </c>
+      <c r="G29" s="9">
+        <v>452197</v>
+      </c>
+      <c r="H29" s="9">
+        <v>351754</v>
+      </c>
+      <c r="I29" s="9">
+        <v>269736</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F29" s="9">
-        <v>426843</v>
-      </c>
-      <c r="G29" s="9">
-        <v>516411</v>
-      </c>
-      <c r="H29" s="9">
-        <v>452197</v>
-      </c>
-      <c r="I29" s="9">
-        <v>351754</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>1735</v>
       </c>
       <c r="F30" s="11">
-        <v>1735</v>
+        <v>16288</v>
       </c>
       <c r="G30" s="11">
-        <v>16288</v>
+        <v>6353</v>
       </c>
       <c r="H30" s="11">
-        <v>6353</v>
+        <v>2469</v>
       </c>
       <c r="I30" s="11">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21728</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>963748</v>
       </c>
       <c r="F31" s="9">
-        <v>963748</v>
+        <v>848946</v>
       </c>
       <c r="G31" s="9">
-        <v>848946</v>
+        <v>725755</v>
       </c>
       <c r="H31" s="9">
-        <v>725755</v>
+        <v>490632</v>
       </c>
       <c r="I31" s="9">
-        <v>490632</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>446397</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+      <c r="E32" s="11">
+        <v>98590</v>
       </c>
       <c r="F32" s="11">
-        <v>98590</v>
+        <v>15064</v>
       </c>
       <c r="G32" s="11">
-        <v>15064</v>
+        <v>3576</v>
       </c>
       <c r="H32" s="11">
-        <v>3576</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>102204</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>26</v>
+      <c r="E33" s="9">
+        <v>21158</v>
       </c>
       <c r="F33" s="9">
-        <v>21158</v>
+        <v>31562</v>
       </c>
       <c r="G33" s="9">
-        <v>31562</v>
+        <v>16068</v>
       </c>
       <c r="H33" s="9">
-        <v>16068</v>
+        <v>1488</v>
       </c>
       <c r="I33" s="9">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5745</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>0</v>
+        <v>1512074</v>
       </c>
       <c r="F34" s="13">
-        <v>1512074</v>
+        <v>1428271</v>
       </c>
       <c r="G34" s="13">
-        <v>1428271</v>
+        <v>1203949</v>
       </c>
       <c r="H34" s="13">
-        <v>1203949</v>
+        <v>846343</v>
       </c>
       <c r="I34" s="13">
-        <v>846343</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>845810</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1290,7 +1290,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1300,7 +1300,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1310,9 +1310,9 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1332,7 +1332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1342,7 +1342,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>24</v>
       </c>
@@ -1350,141 +1350,141 @@
         <v>25</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="9">
+        <v>702324</v>
+      </c>
+      <c r="F40" s="9">
+        <v>551455</v>
+      </c>
+      <c r="G40" s="9">
+        <v>503387</v>
+      </c>
+      <c r="H40" s="9">
+        <v>458582</v>
+      </c>
+      <c r="I40" s="9">
+        <v>507352</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F40" s="9">
-        <v>702324</v>
-      </c>
-      <c r="G40" s="9">
-        <v>551455</v>
-      </c>
-      <c r="H40" s="9">
-        <v>503387</v>
-      </c>
-      <c r="I40" s="9">
-        <v>458582</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>26</v>
+      <c r="E41" s="11">
+        <v>45957</v>
       </c>
       <c r="F41" s="11">
-        <v>45957</v>
+        <v>15822</v>
       </c>
       <c r="G41" s="11">
-        <v>15822</v>
+        <v>30505</v>
       </c>
       <c r="H41" s="11">
-        <v>30505</v>
+        <v>48415</v>
       </c>
       <c r="I41" s="11">
-        <v>48415</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26809</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>26</v>
+      <c r="E42" s="9">
+        <v>572799</v>
       </c>
       <c r="F42" s="9">
-        <v>572799</v>
+        <v>539235</v>
       </c>
       <c r="G42" s="9">
-        <v>539235</v>
+        <v>452750</v>
       </c>
       <c r="H42" s="9">
-        <v>452750</v>
+        <v>633949</v>
       </c>
       <c r="I42" s="9">
-        <v>633949</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>530616</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>26</v>
+      <c r="E43" s="11">
+        <v>52067</v>
       </c>
       <c r="F43" s="11">
-        <v>52067</v>
+        <v>61594</v>
       </c>
       <c r="G43" s="11">
-        <v>61594</v>
+        <v>83025</v>
       </c>
       <c r="H43" s="11">
-        <v>83025</v>
+        <v>168442</v>
       </c>
       <c r="I43" s="11">
-        <v>168442</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23917</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>26</v>
+      <c r="E44" s="9">
+        <v>25230</v>
       </c>
       <c r="F44" s="9">
-        <v>25230</v>
+        <v>0</v>
       </c>
       <c r="G44" s="9">
-        <v>0</v>
+        <v>8304</v>
       </c>
       <c r="H44" s="9">
-        <v>8304</v>
+        <v>23843</v>
       </c>
       <c r="I44" s="9">
-        <v>23843</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27093</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>0</v>
+        <v>1398377</v>
       </c>
       <c r="F45" s="13">
-        <v>1398377</v>
+        <v>1168106</v>
       </c>
       <c r="G45" s="13">
-        <v>1168106</v>
+        <v>1077971</v>
       </c>
       <c r="H45" s="13">
-        <v>1077971</v>
+        <v>1333231</v>
       </c>
       <c r="I45" s="13">
-        <v>1333231</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1115787</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1494,7 +1494,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1504,7 +1504,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1514,9 +1514,9 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1536,7 +1536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1546,7 +1546,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>24</v>
       </c>
@@ -1554,141 +1554,141 @@
         <v>25</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="9">
+        <v>612757</v>
+      </c>
+      <c r="F51" s="9">
+        <v>615670</v>
+      </c>
+      <c r="G51" s="9">
+        <v>603830</v>
+      </c>
+      <c r="H51" s="9">
+        <v>540600</v>
+      </c>
+      <c r="I51" s="9">
+        <v>488632</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F51" s="9">
-        <v>612757</v>
-      </c>
-      <c r="G51" s="9">
-        <v>615670</v>
-      </c>
-      <c r="H51" s="9">
-        <v>603830</v>
-      </c>
-      <c r="I51" s="9">
-        <v>540600</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>26</v>
+      <c r="E52" s="11">
+        <v>31404</v>
       </c>
       <c r="F52" s="11">
-        <v>31404</v>
+        <v>25757</v>
       </c>
       <c r="G52" s="11">
-        <v>25757</v>
+        <v>34389</v>
       </c>
       <c r="H52" s="11">
-        <v>34389</v>
+        <v>29157</v>
       </c>
       <c r="I52" s="11">
-        <v>29157</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>45845</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>26</v>
+      <c r="E53" s="9">
+        <v>687599</v>
       </c>
       <c r="F53" s="9">
-        <v>687599</v>
+        <v>662426</v>
       </c>
       <c r="G53" s="9">
-        <v>662426</v>
+        <v>487870</v>
       </c>
       <c r="H53" s="9">
-        <v>487870</v>
+        <v>678184</v>
       </c>
       <c r="I53" s="9">
-        <v>678184</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>487701</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>26</v>
+      <c r="E54" s="11">
+        <v>135594</v>
       </c>
       <c r="F54" s="11">
-        <v>135594</v>
+        <v>73082</v>
       </c>
       <c r="G54" s="11">
-        <v>73082</v>
+        <v>86601</v>
       </c>
       <c r="H54" s="11">
-        <v>86601</v>
+        <v>66238</v>
       </c>
       <c r="I54" s="11">
-        <v>66238</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>39482</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>26</v>
+      <c r="E55" s="9">
+        <v>14826</v>
       </c>
       <c r="F55" s="9">
-        <v>14826</v>
+        <v>15494</v>
       </c>
       <c r="G55" s="9">
-        <v>15494</v>
+        <v>22884</v>
       </c>
       <c r="H55" s="9">
-        <v>22884</v>
+        <v>19586</v>
       </c>
       <c r="I55" s="9">
-        <v>19586</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18733</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>0</v>
+        <v>1482180</v>
       </c>
       <c r="F56" s="13">
-        <v>1482180</v>
+        <v>1392429</v>
       </c>
       <c r="G56" s="13">
-        <v>1392429</v>
+        <v>1235574</v>
       </c>
       <c r="H56" s="13">
-        <v>1235574</v>
+        <v>1333765</v>
       </c>
       <c r="I56" s="13">
-        <v>1333765</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1080393</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1698,7 +1698,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1708,7 +1708,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1718,9 +1718,9 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1740,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1750,7 +1750,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>24</v>
       </c>
@@ -1758,141 +1758,141 @@
         <v>25</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="9">
+        <v>516410</v>
+      </c>
+      <c r="F62" s="9">
+        <v>452196</v>
+      </c>
+      <c r="G62" s="9">
+        <v>351754</v>
+      </c>
+      <c r="H62" s="9">
+        <v>269736</v>
+      </c>
+      <c r="I62" s="9">
+        <v>288456</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F62" s="9">
-        <v>516410</v>
-      </c>
-      <c r="G62" s="9">
-        <v>452196</v>
-      </c>
-      <c r="H62" s="9">
-        <v>351754</v>
-      </c>
-      <c r="I62" s="9">
-        <v>269736</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>26</v>
+      <c r="E63" s="11">
+        <v>16288</v>
       </c>
       <c r="F63" s="11">
-        <v>16288</v>
+        <v>6353</v>
       </c>
       <c r="G63" s="11">
-        <v>6353</v>
+        <v>2469</v>
       </c>
       <c r="H63" s="11">
-        <v>2469</v>
+        <v>21727</v>
       </c>
       <c r="I63" s="11">
-        <v>21727</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>26</v>
+      <c r="E64" s="9">
+        <v>848948</v>
       </c>
       <c r="F64" s="9">
-        <v>848948</v>
+        <v>725755</v>
       </c>
       <c r="G64" s="9">
-        <v>725755</v>
+        <v>690635</v>
       </c>
       <c r="H64" s="9">
-        <v>690635</v>
+        <v>446397</v>
       </c>
       <c r="I64" s="9">
-        <v>446397</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>489312</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>26</v>
+      <c r="E65" s="11">
+        <v>15063</v>
       </c>
       <c r="F65" s="11">
-        <v>15063</v>
+        <v>3576</v>
       </c>
       <c r="G65" s="11">
-        <v>3576</v>
+        <v>0</v>
       </c>
       <c r="H65" s="11">
-        <v>0</v>
+        <v>102204</v>
       </c>
       <c r="I65" s="11">
-        <v>102204</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>86639</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>26</v>
+      <c r="E66" s="9">
+        <v>31562</v>
       </c>
       <c r="F66" s="9">
-        <v>31562</v>
+        <v>16068</v>
       </c>
       <c r="G66" s="9">
-        <v>16068</v>
+        <v>1488</v>
       </c>
       <c r="H66" s="9">
-        <v>1488</v>
+        <v>5745</v>
       </c>
       <c r="I66" s="9">
-        <v>5745</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14105</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>0</v>
+        <v>1428271</v>
       </c>
       <c r="F67" s="13">
-        <v>1428271</v>
+        <v>1203948</v>
       </c>
       <c r="G67" s="13">
-        <v>1203948</v>
+        <v>1046346</v>
       </c>
       <c r="H67" s="13">
-        <v>1046346</v>
+        <v>845809</v>
       </c>
       <c r="I67" s="13">
-        <v>845809</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>881204</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1902,7 +1902,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1912,7 +1912,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1922,9 +1922,9 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1944,7 +1944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1954,149 +1954,149 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="9">
+        <v>17915</v>
+      </c>
+      <c r="F73" s="9">
+        <v>22827</v>
+      </c>
+      <c r="G73" s="9">
+        <v>33536</v>
+      </c>
+      <c r="H73" s="9">
+        <v>20432</v>
+      </c>
+      <c r="I73" s="9">
+        <v>29415</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F73" s="9">
-        <v>17915</v>
-      </c>
-      <c r="G73" s="9">
-        <v>22827</v>
-      </c>
-      <c r="H73" s="9">
-        <v>33536</v>
-      </c>
-      <c r="I73" s="9">
-        <v>20432</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
+      <c r="C74" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11">
+        <v>764</v>
+      </c>
+      <c r="F74" s="11">
+        <v>8647</v>
+      </c>
+      <c r="G74" s="11">
+        <v>5441</v>
+      </c>
+      <c r="H74" s="11">
+        <v>5235</v>
+      </c>
+      <c r="I74" s="11">
+        <v>61039</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="11">
-        <v>764</v>
-      </c>
-      <c r="G74" s="11">
-        <v>8647</v>
-      </c>
-      <c r="H74" s="11">
-        <v>5441</v>
-      </c>
-      <c r="I74" s="11">
-        <v>5235</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="8" t="s">
+      <c r="C75" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9">
+        <v>48225</v>
+      </c>
+      <c r="F75" s="9">
+        <v>44938</v>
+      </c>
+      <c r="G75" s="9">
+        <v>34102</v>
+      </c>
+      <c r="H75" s="9">
+        <v>48558</v>
+      </c>
+      <c r="I75" s="9">
+        <v>119197</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="9">
-        <v>48225</v>
-      </c>
-      <c r="G75" s="9">
-        <v>44938</v>
-      </c>
-      <c r="H75" s="9">
-        <v>34102</v>
-      </c>
-      <c r="I75" s="9">
-        <v>48558</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
+      <c r="C76" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11">
+        <v>8842</v>
+      </c>
+      <c r="F76" s="11">
+        <v>1456</v>
+      </c>
+      <c r="G76" s="11">
+        <v>979</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>131844</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="11">
-        <v>8842</v>
-      </c>
-      <c r="G76" s="11">
-        <v>1456</v>
-      </c>
-      <c r="H76" s="11">
-        <v>979</v>
-      </c>
-      <c r="I76" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C77" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>26</v>
+      <c r="E77" s="9">
+        <v>14957</v>
       </c>
       <c r="F77" s="9">
-        <v>14957</v>
+        <v>21005</v>
       </c>
       <c r="G77" s="9">
-        <v>21005</v>
+        <v>10047</v>
       </c>
       <c r="H77" s="9">
-        <v>10047</v>
+        <v>5248</v>
       </c>
       <c r="I77" s="9">
-        <v>5248</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35437</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>0</v>
+        <v>90703</v>
       </c>
       <c r="F78" s="13">
-        <v>90703</v>
+        <v>98873</v>
       </c>
       <c r="G78" s="13">
-        <v>98873</v>
+        <v>84105</v>
       </c>
       <c r="H78" s="13">
-        <v>84105</v>
+        <v>79473</v>
       </c>
       <c r="I78" s="13">
-        <v>79473</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>376932</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2106,7 +2106,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2116,7 +2116,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2126,9 +2126,9 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2148,7 +2148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2158,149 +2158,149 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="9">
+        <v>16184</v>
+      </c>
+      <c r="F84" s="9">
+        <v>22830</v>
+      </c>
+      <c r="G84" s="9">
+        <v>18013</v>
+      </c>
+      <c r="H84" s="9">
+        <v>58115</v>
+      </c>
+      <c r="I84" s="9">
+        <v>77771</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F84" s="9">
-        <v>16184</v>
-      </c>
-      <c r="G84" s="9">
-        <v>22830</v>
-      </c>
-      <c r="H84" s="9">
-        <v>18013</v>
-      </c>
-      <c r="I84" s="9">
-        <v>58115</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="10" t="s">
+      <c r="C85" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11">
+        <v>24713</v>
+      </c>
+      <c r="F85" s="11">
+        <v>14573</v>
+      </c>
+      <c r="G85" s="11">
+        <v>63464</v>
+      </c>
+      <c r="H85" s="11">
+        <v>134125</v>
+      </c>
+      <c r="I85" s="11">
+        <v>106347</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="11">
-        <v>24713</v>
-      </c>
-      <c r="G85" s="11">
-        <v>14573</v>
-      </c>
-      <c r="H85" s="11">
-        <v>63464</v>
-      </c>
-      <c r="I85" s="11">
-        <v>134125</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="8" t="s">
+      <c r="C86" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9">
+        <v>34747</v>
+      </c>
+      <c r="F86" s="9">
+        <v>52841</v>
+      </c>
+      <c r="G86" s="9">
+        <v>97777</v>
+      </c>
+      <c r="H86" s="9">
+        <v>175831</v>
+      </c>
+      <c r="I86" s="9">
+        <v>328240</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="9">
-        <v>34747</v>
-      </c>
-      <c r="G86" s="9">
-        <v>52841</v>
-      </c>
-      <c r="H86" s="9">
-        <v>97777</v>
-      </c>
-      <c r="I86" s="9">
-        <v>175831</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="10" t="s">
+      <c r="C87" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11">
+        <v>6148</v>
+      </c>
+      <c r="F87" s="11">
+        <v>14124</v>
+      </c>
+      <c r="G87" s="11">
+        <v>27853</v>
+      </c>
+      <c r="H87" s="11">
+        <v>194559</v>
+      </c>
+      <c r="I87" s="11">
+        <v>30850</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="11">
-        <v>6148</v>
-      </c>
-      <c r="G87" s="11">
-        <v>14124</v>
-      </c>
-      <c r="H87" s="11">
-        <v>27853</v>
-      </c>
-      <c r="I87" s="11">
-        <v>194559</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C88" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
-        <v>26</v>
+      <c r="E88" s="9">
+        <v>16482</v>
       </c>
       <c r="F88" s="9">
-        <v>16482</v>
+        <v>0</v>
       </c>
       <c r="G88" s="9">
-        <v>0</v>
+        <v>28607</v>
       </c>
       <c r="H88" s="9">
-        <v>28607</v>
+        <v>119740</v>
       </c>
       <c r="I88" s="9">
-        <v>119740</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>230146</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>0</v>
+        <v>98274</v>
       </c>
       <c r="F89" s="13">
-        <v>98274</v>
+        <v>104368</v>
       </c>
       <c r="G89" s="13">
-        <v>104368</v>
+        <v>235714</v>
       </c>
       <c r="H89" s="13">
-        <v>235714</v>
+        <v>682370</v>
       </c>
       <c r="I89" s="13">
-        <v>682370</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>773354</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2310,7 +2310,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2320,7 +2320,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2330,9 +2330,9 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2352,7 +2352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2362,149 +2362,149 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="9">
+        <v>11271</v>
+      </c>
+      <c r="F95" s="9">
+        <v>23410</v>
+      </c>
+      <c r="G95" s="9">
+        <v>31117</v>
+      </c>
+      <c r="H95" s="9">
+        <v>49132</v>
+      </c>
+      <c r="I95" s="9">
+        <v>66359</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F95" s="9">
-        <v>11271</v>
-      </c>
-      <c r="G95" s="9">
-        <v>23410</v>
-      </c>
-      <c r="H95" s="9">
-        <v>31117</v>
-      </c>
-      <c r="I95" s="9">
-        <v>49132</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="10" t="s">
+      <c r="C96" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11">
+        <v>16830</v>
+      </c>
+      <c r="F96" s="11">
+        <v>17779</v>
+      </c>
+      <c r="G96" s="11">
+        <v>63670</v>
+      </c>
+      <c r="H96" s="11">
+        <v>78321</v>
+      </c>
+      <c r="I96" s="11">
+        <v>156518</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C96" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F96" s="11">
-        <v>16830</v>
-      </c>
-      <c r="G96" s="11">
-        <v>17779</v>
-      </c>
-      <c r="H96" s="11">
-        <v>63670</v>
-      </c>
-      <c r="I96" s="11">
-        <v>78321</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="8" t="s">
+      <c r="C97" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9">
+        <v>38034</v>
+      </c>
+      <c r="F97" s="9">
+        <v>52389</v>
+      </c>
+      <c r="G97" s="9">
+        <v>83321</v>
+      </c>
+      <c r="H97" s="9">
+        <v>105193</v>
+      </c>
+      <c r="I97" s="9">
+        <v>187982</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F97" s="9">
-        <v>38034</v>
-      </c>
-      <c r="G97" s="9">
-        <v>52389</v>
-      </c>
-      <c r="H97" s="9">
-        <v>83321</v>
-      </c>
-      <c r="I97" s="9">
-        <v>105193</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="10" t="s">
+      <c r="C98" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11">
+        <v>13535</v>
+      </c>
+      <c r="F98" s="11">
+        <v>14600</v>
+      </c>
+      <c r="G98" s="11">
+        <v>28832</v>
+      </c>
+      <c r="H98" s="11">
+        <v>62715</v>
+      </c>
+      <c r="I98" s="11">
+        <v>50931</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C98" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F98" s="11">
-        <v>13535</v>
-      </c>
-      <c r="G98" s="11">
-        <v>14600</v>
-      </c>
-      <c r="H98" s="11">
-        <v>28832</v>
-      </c>
-      <c r="I98" s="11">
-        <v>62715</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C99" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>26</v>
+      <c r="E99" s="9">
+        <v>10434</v>
       </c>
       <c r="F99" s="9">
-        <v>10434</v>
+        <v>10958</v>
       </c>
       <c r="G99" s="9">
-        <v>10958</v>
+        <v>33406</v>
       </c>
       <c r="H99" s="9">
-        <v>33406</v>
+        <v>89551</v>
       </c>
       <c r="I99" s="9">
-        <v>89551</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>134880</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>0</v>
+        <v>90104</v>
       </c>
       <c r="F100" s="13">
-        <v>90104</v>
+        <v>119136</v>
       </c>
       <c r="G100" s="13">
-        <v>119136</v>
+        <v>240346</v>
       </c>
       <c r="H100" s="13">
-        <v>240346</v>
+        <v>384912</v>
       </c>
       <c r="I100" s="13">
-        <v>384912</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>596670</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2514,7 +2514,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2524,7 +2524,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2534,9 +2534,9 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2556,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2566,149 +2566,149 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="9">
+        <v>22828</v>
+      </c>
+      <c r="F106" s="9">
+        <v>22247</v>
+      </c>
+      <c r="G106" s="9">
+        <v>20432</v>
+      </c>
+      <c r="H106" s="9">
+        <v>29415</v>
+      </c>
+      <c r="I106" s="9">
+        <v>40827</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F106" s="9">
-        <v>22828</v>
-      </c>
-      <c r="G106" s="9">
-        <v>22247</v>
-      </c>
-      <c r="H106" s="9">
-        <v>20432</v>
-      </c>
-      <c r="I106" s="9">
-        <v>29415</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="10" t="s">
+      <c r="C107" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11">
+        <v>8647</v>
+      </c>
+      <c r="F107" s="11">
+        <v>5441</v>
+      </c>
+      <c r="G107" s="11">
+        <v>5235</v>
+      </c>
+      <c r="H107" s="11">
+        <v>61039</v>
+      </c>
+      <c r="I107" s="11">
+        <v>10868</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F107" s="11">
-        <v>8647</v>
-      </c>
-      <c r="G107" s="11">
-        <v>5441</v>
-      </c>
-      <c r="H107" s="11">
-        <v>5235</v>
-      </c>
-      <c r="I107" s="11">
-        <v>61039</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="8" t="s">
+      <c r="C108" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9">
+        <v>44938</v>
+      </c>
+      <c r="F108" s="9">
+        <v>45390</v>
+      </c>
+      <c r="G108" s="9">
+        <v>48558</v>
+      </c>
+      <c r="H108" s="9">
+        <v>119196</v>
+      </c>
+      <c r="I108" s="9">
+        <v>259455</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C108" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F108" s="9">
-        <v>44938</v>
-      </c>
-      <c r="G108" s="9">
-        <v>45390</v>
-      </c>
-      <c r="H108" s="9">
-        <v>48558</v>
-      </c>
-      <c r="I108" s="9">
-        <v>119196</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="10" t="s">
+      <c r="C109" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11">
+        <v>1455</v>
+      </c>
+      <c r="F109" s="11">
+        <v>980</v>
+      </c>
+      <c r="G109" s="11">
+        <v>0</v>
+      </c>
+      <c r="H109" s="11">
+        <v>131844</v>
+      </c>
+      <c r="I109" s="11">
+        <v>111763</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C109" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F109" s="11">
-        <v>1455</v>
-      </c>
-      <c r="G109" s="11">
-        <v>980</v>
-      </c>
-      <c r="H109" s="11">
-        <v>0</v>
-      </c>
-      <c r="I109" s="11">
-        <v>131844</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C110" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D110" s="9"/>
-      <c r="E110" s="9" t="s">
-        <v>26</v>
+      <c r="E110" s="9">
+        <v>21005</v>
       </c>
       <c r="F110" s="9">
-        <v>21005</v>
+        <v>10047</v>
       </c>
       <c r="G110" s="9">
-        <v>10047</v>
+        <v>5248</v>
       </c>
       <c r="H110" s="9">
-        <v>5248</v>
+        <v>35437</v>
       </c>
       <c r="I110" s="9">
-        <v>35437</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>130703</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
-        <v>0</v>
+        <v>98873</v>
       </c>
       <c r="F111" s="13">
-        <v>98873</v>
+        <v>84105</v>
       </c>
       <c r="G111" s="13">
-        <v>84105</v>
+        <v>79473</v>
       </c>
       <c r="H111" s="13">
-        <v>79473</v>
+        <v>376931</v>
       </c>
       <c r="I111" s="13">
-        <v>376931</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>553616</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2718,7 +2718,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2728,7 +2728,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2738,9 +2738,9 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2760,7 +2760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2770,127 +2770,127 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C117" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9">
+        <v>41971</v>
+      </c>
+      <c r="F117" s="9">
+        <v>44203</v>
+      </c>
+      <c r="G117" s="9">
+        <v>74162</v>
+      </c>
+      <c r="H117" s="9">
+        <v>58086</v>
+      </c>
+      <c r="I117" s="9">
+        <v>109051</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B118" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11">
+        <v>440346</v>
+      </c>
+      <c r="F118" s="11">
+        <v>530882</v>
+      </c>
+      <c r="G118" s="11">
+        <v>856446</v>
+      </c>
+      <c r="H118" s="11">
+        <v>2120292</v>
+      </c>
+      <c r="I118" s="11">
+        <v>2809232</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9">
+        <v>50039</v>
+      </c>
+      <c r="F119" s="9">
+        <v>52934</v>
+      </c>
+      <c r="G119" s="9">
+        <v>46988</v>
+      </c>
+      <c r="H119" s="9">
+        <v>98970</v>
+      </c>
+      <c r="I119" s="9">
+        <v>267020</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11">
+        <v>89685</v>
+      </c>
+      <c r="F120" s="11">
+        <v>96654</v>
+      </c>
+      <c r="G120" s="11">
+        <v>273770</v>
+      </c>
+      <c r="H120" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117" s="9">
-        <v>41971</v>
-      </c>
-      <c r="G117" s="9">
-        <v>44203</v>
-      </c>
-      <c r="H117" s="9">
-        <v>74162</v>
-      </c>
-      <c r="I117" s="9">
-        <v>58086</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F118" s="11">
-        <v>440346</v>
-      </c>
-      <c r="G118" s="11">
-        <v>530882</v>
-      </c>
-      <c r="H118" s="11">
-        <v>856446</v>
-      </c>
-      <c r="I118" s="11">
-        <v>2120292</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="9">
-        <v>50039</v>
-      </c>
-      <c r="G119" s="9">
-        <v>52934</v>
-      </c>
-      <c r="H119" s="9">
-        <v>46988</v>
-      </c>
-      <c r="I119" s="9">
-        <v>98970</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="10" t="s">
+      <c r="I120" s="11">
+        <v>1290008</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F120" s="11">
-        <v>89685</v>
-      </c>
-      <c r="G120" s="11">
-        <v>96654</v>
-      </c>
-      <c r="H120" s="11">
-        <v>273770</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C121" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D121" s="9"/>
-      <c r="E121" s="9" t="s">
-        <v>26</v>
+      <c r="E121" s="9">
+        <v>706919</v>
       </c>
       <c r="F121" s="9">
-        <v>706919</v>
+        <v>665515</v>
       </c>
       <c r="G121" s="9">
-        <v>665515</v>
+        <v>625280</v>
       </c>
       <c r="H121" s="9">
-        <v>625280</v>
+        <v>3526882</v>
       </c>
       <c r="I121" s="9">
-        <v>3526882</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6168320</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2900,7 +2900,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2910,7 +2910,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2920,7 +2920,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>41</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2952,127 +2952,127 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C127" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9">
+        <v>23044</v>
+      </c>
+      <c r="F127" s="9">
+        <v>41400</v>
+      </c>
+      <c r="G127" s="9">
+        <v>35784</v>
+      </c>
+      <c r="H127" s="9">
+        <v>126728</v>
+      </c>
+      <c r="I127" s="9">
+        <v>153288</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11">
+        <v>537742</v>
+      </c>
+      <c r="F128" s="11">
+        <v>921059</v>
+      </c>
+      <c r="G128" s="11">
+        <v>2080446</v>
+      </c>
+      <c r="H128" s="11">
+        <v>2770319</v>
+      </c>
+      <c r="I128" s="11">
+        <v>3966839</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9">
+        <v>60662</v>
+      </c>
+      <c r="F129" s="9">
+        <v>97993</v>
+      </c>
+      <c r="G129" s="9">
+        <v>215962</v>
+      </c>
+      <c r="H129" s="9">
+        <v>277358</v>
+      </c>
+      <c r="I129" s="9">
+        <v>618602</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11">
+        <v>118079</v>
+      </c>
+      <c r="F130" s="11">
+        <v>229308</v>
+      </c>
+      <c r="G130" s="11">
+        <v>335477</v>
+      </c>
+      <c r="H130" s="11">
+        <v>1155050</v>
+      </c>
+      <c r="I130" s="11">
+        <v>1289877</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9">
+        <v>653270</v>
+      </c>
+      <c r="F131" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F127" s="9">
-        <v>23044</v>
-      </c>
-      <c r="G127" s="9">
-        <v>41400</v>
-      </c>
-      <c r="H127" s="9">
-        <v>35784</v>
-      </c>
-      <c r="I127" s="9">
-        <v>126728</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F128" s="11">
-        <v>537742</v>
-      </c>
-      <c r="G128" s="11">
-        <v>921059</v>
-      </c>
-      <c r="H128" s="11">
-        <v>2080446</v>
-      </c>
-      <c r="I128" s="11">
-        <v>2770319</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F129" s="9">
-        <v>60662</v>
-      </c>
-      <c r="G129" s="9">
-        <v>97993</v>
-      </c>
-      <c r="H129" s="9">
-        <v>215962</v>
-      </c>
-      <c r="I129" s="9">
-        <v>277358</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F130" s="11">
-        <v>118079</v>
-      </c>
-      <c r="G130" s="11">
-        <v>229308</v>
-      </c>
-      <c r="H130" s="11">
-        <v>335477</v>
-      </c>
-      <c r="I130" s="11">
-        <v>1155050</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F131" s="9">
-        <v>653270</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>26</v>
+      <c r="G131" s="9">
+        <v>3444966</v>
       </c>
       <c r="H131" s="9">
-        <v>3444966</v>
+        <v>5022019</v>
       </c>
       <c r="I131" s="9">
-        <v>5022019</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8494667</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3082,7 +3082,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3092,7 +3092,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3102,7 +3102,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>42</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3134,127 +3134,127 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
+      <c r="E137" s="9">
+        <v>18394</v>
+      </c>
+      <c r="F137" s="9">
+        <v>38024</v>
+      </c>
+      <c r="G137" s="9">
+        <v>51533</v>
+      </c>
+      <c r="H137" s="9">
+        <v>90884</v>
+      </c>
+      <c r="I137" s="9">
+        <v>135806</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F137" s="9">
-        <v>18394</v>
-      </c>
-      <c r="G137" s="9">
-        <v>38024</v>
-      </c>
-      <c r="H137" s="9">
-        <v>51533</v>
-      </c>
-      <c r="I137" s="9">
-        <v>90884</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="10" t="s">
+      <c r="C138" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11">
+        <v>535919</v>
+      </c>
+      <c r="F138" s="11">
+        <v>690259</v>
+      </c>
+      <c r="G138" s="11">
+        <v>1851464</v>
+      </c>
+      <c r="H138" s="11">
+        <v>2686182</v>
+      </c>
+      <c r="I138" s="11">
+        <v>3414069</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C138" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F138" s="11">
-        <v>535919</v>
-      </c>
-      <c r="G138" s="11">
-        <v>690259</v>
-      </c>
-      <c r="H138" s="11">
-        <v>1851464</v>
-      </c>
-      <c r="I138" s="11">
-        <v>2686182</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="8" t="s">
+      <c r="C139" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9">
+        <v>55314</v>
+      </c>
+      <c r="F139" s="9">
+        <v>79087</v>
+      </c>
+      <c r="G139" s="9">
+        <v>170785</v>
+      </c>
+      <c r="H139" s="9">
+        <v>155110</v>
+      </c>
+      <c r="I139" s="9">
+        <v>385445</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B140" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C139" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F139" s="9">
-        <v>55314</v>
-      </c>
-      <c r="G139" s="9">
-        <v>79087</v>
-      </c>
-      <c r="H139" s="9">
-        <v>170785</v>
-      </c>
-      <c r="I139" s="9">
-        <v>155110</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="10" t="s">
+      <c r="C140" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11">
+        <v>99820</v>
+      </c>
+      <c r="F140" s="11">
+        <v>199776</v>
+      </c>
+      <c r="G140" s="11">
+        <v>332929</v>
+      </c>
+      <c r="H140" s="11">
+        <v>946813</v>
+      </c>
+      <c r="I140" s="11">
+        <v>1289980</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B141" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C140" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F140" s="11">
-        <v>99820</v>
-      </c>
-      <c r="G140" s="11">
-        <v>199776</v>
-      </c>
-      <c r="H140" s="11">
-        <v>332929</v>
-      </c>
-      <c r="I140" s="11">
-        <v>946813</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C141" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
-        <v>26</v>
+      <c r="E141" s="9">
+        <v>703764</v>
       </c>
       <c r="F141" s="9">
-        <v>703764</v>
+        <v>707242</v>
       </c>
       <c r="G141" s="9">
-        <v>707242</v>
+        <v>1459797</v>
       </c>
       <c r="H141" s="9">
-        <v>1459797</v>
+        <v>4572194</v>
       </c>
       <c r="I141" s="9">
-        <v>4572194</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7200128</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3264,7 +3264,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3274,7 +3274,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3284,7 +3284,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>43</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3316,7 +3316,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>24</v>
       </c>
@@ -3324,119 +3324,119 @@
         <v>25</v>
       </c>
       <c r="D147" s="9"/>
-      <c r="E147" s="9" t="s">
+      <c r="E147" s="9">
+        <v>44205</v>
+      </c>
+      <c r="F147" s="9">
+        <v>49198</v>
+      </c>
+      <c r="G147" s="9">
+        <v>58086</v>
+      </c>
+      <c r="H147" s="9">
+        <v>109051</v>
+      </c>
+      <c r="I147" s="9">
+        <v>141536</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F147" s="9">
-        <v>44205</v>
-      </c>
-      <c r="G147" s="9">
-        <v>49198</v>
-      </c>
-      <c r="H147" s="9">
-        <v>58086</v>
-      </c>
-      <c r="I147" s="9">
-        <v>109051</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="11"/>
-      <c r="E148" s="11" t="s">
-        <v>26</v>
+      <c r="E148" s="11">
+        <v>530882</v>
       </c>
       <c r="F148" s="11">
-        <v>530882</v>
+        <v>856446</v>
       </c>
       <c r="G148" s="11">
-        <v>856446</v>
+        <v>2120292</v>
       </c>
       <c r="H148" s="11">
-        <v>2120292</v>
+        <v>2809362</v>
       </c>
       <c r="I148" s="11">
-        <v>2809362</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4037147</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="9"/>
-      <c r="E149" s="9" t="s">
-        <v>26</v>
+      <c r="E149" s="9">
+        <v>52934</v>
       </c>
       <c r="F149" s="9">
-        <v>52934</v>
+        <v>62542</v>
       </c>
       <c r="G149" s="9">
-        <v>62542</v>
+        <v>70309</v>
       </c>
       <c r="H149" s="9">
-        <v>70309</v>
+        <v>267018</v>
       </c>
       <c r="I149" s="9">
-        <v>267018</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>530245</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="11"/>
-      <c r="E150" s="11" t="s">
-        <v>26</v>
+      <c r="E150" s="11">
+        <v>96594</v>
       </c>
       <c r="F150" s="11">
-        <v>96594</v>
-      </c>
-      <c r="G150" s="11">
         <v>274049</v>
       </c>
-      <c r="H150" s="11" t="s">
-        <v>26</v>
+      <c r="G150" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H150" s="11">
+        <v>1290008</v>
       </c>
       <c r="I150" s="11">
-        <v>1290008</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1289985</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="9"/>
-      <c r="E151" s="9" t="s">
-        <v>26</v>
+      <c r="E151" s="9">
+        <v>665515</v>
       </c>
       <c r="F151" s="9">
-        <v>665515</v>
+        <v>625280</v>
       </c>
       <c r="G151" s="9">
-        <v>625280</v>
+        <v>3526882</v>
       </c>
       <c r="H151" s="9">
-        <v>3526882</v>
+        <v>6168320</v>
       </c>
       <c r="I151" s="9">
-        <v>6168320</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9266430</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3446,7 +3446,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3456,7 +3456,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3466,7 +3466,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>44</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3498,7 +3498,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>45</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>46</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>47</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>48</v>
       </c>
@@ -3586,95 +3586,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
-        <v>67372</v>
+        <v>118205</v>
       </c>
       <c r="F161" s="9">
-        <v>118205</v>
+        <v>169446</v>
       </c>
       <c r="G161" s="9">
-        <v>169446</v>
+        <v>284940</v>
       </c>
       <c r="H161" s="9">
-        <v>284940</v>
+        <v>356220</v>
       </c>
       <c r="I161" s="9">
-        <v>356220</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>349649</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>158969</v>
+        <v>161531</v>
       </c>
       <c r="F162" s="11">
-        <v>161531</v>
+        <v>188566</v>
       </c>
       <c r="G162" s="11">
-        <v>188566</v>
+        <v>272039</v>
       </c>
       <c r="H162" s="11">
-        <v>272039</v>
+        <v>710814</v>
       </c>
       <c r="I162" s="11">
-        <v>710814</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>955260</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
-        <v>36958</v>
+        <v>34953</v>
       </c>
       <c r="F163" s="9">
-        <v>34953</v>
+        <v>34572</v>
       </c>
       <c r="G163" s="9">
-        <v>34572</v>
+        <v>30347</v>
       </c>
       <c r="H163" s="9">
-        <v>30347</v>
+        <v>26801</v>
       </c>
       <c r="I163" s="9">
-        <v>26801</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+        <v>74656</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
-        <v>238722</v>
+        <v>182352</v>
       </c>
       <c r="F164" s="11">
-        <v>182352</v>
+        <v>272519</v>
       </c>
       <c r="G164" s="11">
-        <v>272519</v>
+        <v>377344</v>
       </c>
       <c r="H164" s="11">
-        <v>377344</v>
+        <v>538056</v>
       </c>
       <c r="I164" s="11">
-        <v>538056</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+        <v>864605</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>53</v>
       </c>
@@ -3696,51 +3696,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>111745</v>
+        <v>224670</v>
       </c>
       <c r="F166" s="11">
-        <v>224670</v>
+        <v>167269</v>
       </c>
       <c r="G166" s="11">
-        <v>167269</v>
+        <v>250521</v>
       </c>
       <c r="H166" s="11">
-        <v>250521</v>
+        <v>356993</v>
       </c>
       <c r="I166" s="11">
-        <v>356993</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+        <v>794087</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15">
-        <v>613766</v>
+        <v>721711</v>
       </c>
       <c r="F167" s="15">
-        <v>721711</v>
+        <v>832372</v>
       </c>
       <c r="G167" s="15">
-        <v>832372</v>
+        <v>1215191</v>
       </c>
       <c r="H167" s="15">
-        <v>1215191</v>
+        <v>1988884</v>
       </c>
       <c r="I167" s="15">
-        <v>1988884</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3038257</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B171" s="7" t="s">
         <v>55</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>56</v>
       </c>
